--- a/com.demo_pos/src/test/resources/Excel.xlsx
+++ b/com.demo_pos/src/test/resources/Excel.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
